--- a/Household survey sample (MAD, FCS, etc.).xlsx
+++ b/Household survey sample (MAD, FCS, etc.).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanga\OneDrive\Documents\Data analysis portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6803104-8CC3-49BA-864A-0B1F47BE3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1C6EA0-08B0-4FAC-BD57-11954E30255D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4195" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4195" uniqueCount="2054">
   <si>
     <t>type</t>
   </si>
@@ -4945,9 +4945,6 @@
     <t>if((((${fes_30d} + ${fes_6m} + ${exp_30d_comida}) div ${hhsize}) &gt; 389.25), '1', '0')</t>
   </si>
   <si>
-    <t>Boleta_test</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -6207,6 +6204,12 @@
   </si>
   <si>
     <t>If the member is less than 2 years old (24 months), enter 0 in completed years and enter the member's age in months.</t>
+  </si>
+  <si>
+    <t>HHS_test</t>
+  </si>
+  <si>
+    <t>Household_survey_test</t>
   </si>
 </sst>
 </file>
@@ -18226,8 +18229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL88874"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
@@ -18272,7 +18275,7 @@
         <v>1584</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>2</v>
@@ -18591,7 +18594,7 @@
         <v>1142</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
@@ -18868,7 +18871,7 @@
       </c>
       <c r="K21" s="83"/>
       <c r="L21" s="83" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="M21" s="83"/>
       <c r="N21" s="83"/>
@@ -19726,7 +19729,7 @@
         <v>133</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H52" s="57"/>
       <c r="I52" s="56"/>
@@ -20825,10 +20828,10 @@
         <v>747</v>
       </c>
       <c r="D90" s="56" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F90" s="56"/>
       <c r="G90" s="56"/>
@@ -21174,7 +21177,7 @@
       </c>
       <c r="K102" s="83"/>
       <c r="L102" s="83" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="M102" s="83"/>
       <c r="N102" s="83"/>
@@ -21216,10 +21219,10 @@
         <v>747</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -21549,7 +21552,7 @@
       </c>
       <c r="K116" s="83"/>
       <c r="L116" s="83" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="M116" s="83"/>
       <c r="N116" s="83"/>
@@ -21636,10 +21639,10 @@
         <v>203</v>
       </c>
       <c r="D120" s="56" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F120" s="56"/>
       <c r="G120" s="56"/>
@@ -21701,7 +21704,7 @@
         <v>206</v>
       </c>
       <c r="G122" s="56" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="H122" s="56"/>
       <c r="I122" s="56"/>
@@ -21761,7 +21764,7 @@
         <v>210</v>
       </c>
       <c r="G124" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H124" s="56"/>
       <c r="I124" s="56"/>
@@ -21794,7 +21797,7 @@
         <v>210</v>
       </c>
       <c r="G125" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H125" s="56"/>
       <c r="I125" s="56"/>
@@ -21827,7 +21830,7 @@
         <v>210</v>
       </c>
       <c r="G126" s="57" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H126" s="56"/>
       <c r="I126" s="56"/>
@@ -21860,7 +21863,7 @@
         <v>210</v>
       </c>
       <c r="G127" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H127" s="56"/>
       <c r="I127" s="57"/>
@@ -21893,7 +21896,7 @@
         <v>210</v>
       </c>
       <c r="G128" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H128" s="56"/>
       <c r="I128" s="56"/>
@@ -21926,7 +21929,7 @@
         <v>210</v>
       </c>
       <c r="G129" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H129" s="56"/>
       <c r="I129" s="56"/>
@@ -21959,7 +21962,7 @@
         <v>210</v>
       </c>
       <c r="G130" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H130" s="56"/>
       <c r="I130" s="56"/>
@@ -21992,7 +21995,7 @@
         <v>210</v>
       </c>
       <c r="G131" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H131" s="56"/>
       <c r="I131" s="56"/>
@@ -22025,7 +22028,7 @@
         <v>210</v>
       </c>
       <c r="G132" s="56" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H132" s="56"/>
       <c r="I132" s="56"/>
@@ -22156,7 +22159,7 @@
         <v>226</v>
       </c>
       <c r="G137" s="56" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="H137" s="56"/>
       <c r="I137" s="56"/>
@@ -22189,7 +22192,7 @@
         <v>226</v>
       </c>
       <c r="G138" s="56" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H138" s="56"/>
       <c r="I138" s="56"/>
@@ -22222,7 +22225,7 @@
         <v>226</v>
       </c>
       <c r="G139" s="56" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H139" s="56"/>
       <c r="I139" s="56"/>
@@ -22255,7 +22258,7 @@
         <v>226</v>
       </c>
       <c r="G140" s="56" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H140" s="56"/>
       <c r="I140" s="56"/>
@@ -22288,7 +22291,7 @@
         <v>226</v>
       </c>
       <c r="G141" s="56" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H141" s="56"/>
       <c r="I141" s="56"/>
@@ -22321,7 +22324,7 @@
         <v>226</v>
       </c>
       <c r="G142" s="57" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H142" s="56"/>
       <c r="I142" s="56"/>
@@ -22354,7 +22357,7 @@
         <v>226</v>
       </c>
       <c r="G143" s="56" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H143" s="56"/>
       <c r="I143" s="56"/>
@@ -22387,7 +22390,7 @@
         <v>226</v>
       </c>
       <c r="G144" s="56" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H144" s="56"/>
       <c r="I144" s="56"/>
@@ -22420,7 +22423,7 @@
         <v>226</v>
       </c>
       <c r="G145" s="56" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H145" s="56"/>
       <c r="I145" s="56"/>
@@ -22602,10 +22605,10 @@
         <v>203</v>
       </c>
       <c r="D152" s="56" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E152" s="56" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="F152" s="57"/>
       <c r="G152" s="57"/>
@@ -22648,10 +22651,10 @@
         <v>246</v>
       </c>
       <c r="D154" s="56" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E154" s="56" t="s">
         <v>1646</v>
-      </c>
-      <c r="E154" s="56" t="s">
-        <v>1647</v>
       </c>
       <c r="F154" s="57"/>
       <c r="G154" s="57"/>
@@ -22732,7 +22735,7 @@
         <v>251</v>
       </c>
       <c r="E157" s="56" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F157" s="56" t="s">
         <v>252</v>
@@ -22762,7 +22765,7 @@
         <v>725</v>
       </c>
       <c r="E158" s="56" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F158" s="57"/>
       <c r="G158" s="57"/>
@@ -22790,7 +22793,7 @@
         <v>255</v>
       </c>
       <c r="E159" s="56" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="F159" s="57" t="s">
         <v>256</v>
@@ -22842,7 +22845,7 @@
         <v>260</v>
       </c>
       <c r="E161" s="56" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F161" s="57"/>
       <c r="G161" s="57"/>
@@ -22874,7 +22877,7 @@
         <v>264</v>
       </c>
       <c r="E162" s="56" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F162" s="57"/>
       <c r="G162" s="57"/>
@@ -22906,7 +22909,7 @@
         <v>725</v>
       </c>
       <c r="E163" s="56" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F163" s="56"/>
       <c r="G163" s="56"/>
@@ -22932,7 +22935,7 @@
         <v>266</v>
       </c>
       <c r="E164" s="56" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F164" s="56"/>
       <c r="G164" s="56"/>
@@ -22960,7 +22963,7 @@
         <v>268</v>
       </c>
       <c r="E165" s="56" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F165" s="56" t="s">
         <v>269</v>
@@ -23012,7 +23015,7 @@
         <v>266</v>
       </c>
       <c r="E167" s="56" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F167" s="56"/>
       <c r="G167" s="56"/>
@@ -23038,7 +23041,7 @@
         <v>271</v>
       </c>
       <c r="E168" s="56" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F168" s="57"/>
       <c r="G168" s="57"/>
@@ -23066,7 +23069,7 @@
         <v>273</v>
       </c>
       <c r="E169" s="56" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="F169" s="57" t="s">
         <v>274</v>
@@ -23118,7 +23121,7 @@
         <v>271</v>
       </c>
       <c r="E171" s="56" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F171" s="57"/>
       <c r="G171" s="57"/>
@@ -23144,7 +23147,7 @@
         <v>276</v>
       </c>
       <c r="E172" s="56" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F172" s="57"/>
       <c r="G172" s="57"/>
@@ -23172,7 +23175,7 @@
         <v>278</v>
       </c>
       <c r="E173" s="56" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F173" s="57" t="s">
         <v>279</v>
@@ -23224,7 +23227,7 @@
         <v>281</v>
       </c>
       <c r="E175" s="56" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F175" s="56" t="s">
         <v>282</v>
@@ -23258,7 +23261,7 @@
         <v>286</v>
       </c>
       <c r="E176" s="56" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F176" s="56" t="s">
         <v>287</v>
@@ -23292,7 +23295,7 @@
         <v>289</v>
       </c>
       <c r="E177" s="56" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F177" s="57" t="s">
         <v>290</v>
@@ -23326,7 +23329,7 @@
         <v>292</v>
       </c>
       <c r="E178" s="56" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F178" s="57" t="s">
         <v>293</v>
@@ -23361,7 +23364,7 @@
         <v>276</v>
       </c>
       <c r="E179" s="56" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23375,7 +23378,7 @@
         <v>295</v>
       </c>
       <c r="E180" s="56" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F180" s="57"/>
       <c r="G180" s="57"/>
@@ -23404,7 +23407,7 @@
         <v>297</v>
       </c>
       <c r="E181" s="54" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F181" s="56" t="s">
         <v>726</v>
@@ -23456,7 +23459,7 @@
         <v>299</v>
       </c>
       <c r="E183" s="56" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F183" s="56" t="s">
         <v>300</v>
@@ -23491,7 +23494,7 @@
         <v>304</v>
       </c>
       <c r="E184" s="54" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F184" s="56" t="s">
         <v>305</v>
@@ -23526,7 +23529,7 @@
         <v>295</v>
       </c>
       <c r="E185" s="56" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23540,7 +23543,7 @@
         <v>307</v>
       </c>
       <c r="E186" s="56" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F186" s="57"/>
       <c r="G186" s="57"/>
@@ -23568,7 +23571,7 @@
         <v>309</v>
       </c>
       <c r="E187" s="56" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F187" s="57" t="s">
         <v>310</v>
@@ -23620,7 +23623,7 @@
         <v>312</v>
       </c>
       <c r="E189" s="56" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F189" s="57" t="s">
         <v>313</v>
@@ -23655,7 +23658,7 @@
         <v>317</v>
       </c>
       <c r="E190" s="84" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F190" s="85" t="s">
         <v>318</v>
@@ -23689,7 +23692,7 @@
         <v>307</v>
       </c>
       <c r="E191" s="56" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F191" s="57"/>
       <c r="G191" s="57"/>
@@ -23716,7 +23719,7 @@
         <v>320</v>
       </c>
       <c r="E192" s="56" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="O192" s="56" t="s">
         <v>97</v>
@@ -23733,7 +23736,7 @@
         <v>93</v>
       </c>
       <c r="E193" s="56" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F193" s="57" t="s">
         <v>322</v>
@@ -23785,7 +23788,7 @@
         <v>320</v>
       </c>
       <c r="E195" s="56" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F195" s="57"/>
       <c r="G195" s="57"/>
@@ -23811,7 +23814,7 @@
         <v>324</v>
       </c>
       <c r="E196" s="56" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F196" s="57"/>
       <c r="G196" s="57"/>
@@ -23839,7 +23842,7 @@
         <v>326</v>
       </c>
       <c r="E197" s="56" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F197" s="57" t="s">
         <v>327</v>
@@ -23891,7 +23894,7 @@
         <v>324</v>
       </c>
       <c r="E199" s="56" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F199" s="57"/>
       <c r="G199" s="57"/>
@@ -23917,7 +23920,7 @@
         <v>329</v>
       </c>
       <c r="E200" s="56" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F200" s="57"/>
       <c r="G200" s="57"/>
@@ -23946,7 +23949,7 @@
         <v>332</v>
       </c>
       <c r="E201" s="56" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F201" s="57"/>
       <c r="G201" s="57"/>
@@ -24031,7 +24034,7 @@
         <v>251</v>
       </c>
       <c r="E204" s="56" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F204" s="57"/>
       <c r="G204" s="57"/>
@@ -24159,10 +24162,10 @@
         <v>246</v>
       </c>
       <c r="D209" s="56" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E209" s="56" t="s">
         <v>1646</v>
-      </c>
-      <c r="E209" s="56" t="s">
-        <v>1647</v>
       </c>
       <c r="F209" s="57"/>
       <c r="G209" s="57"/>
@@ -24205,10 +24208,10 @@
         <v>343</v>
       </c>
       <c r="D211" s="56" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E211" s="56" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F211" s="57"/>
       <c r="G211" s="57"/>
@@ -24264,7 +24267,7 @@
         <v>344</v>
       </c>
       <c r="E213" s="56" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F213" s="57"/>
       <c r="G213" s="57"/>
@@ -24291,13 +24294,13 @@
         <v>612</v>
       </c>
       <c r="E214" s="56" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F214" s="57" t="s">
         <v>346</v>
       </c>
       <c r="G214" s="57" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H214" s="57"/>
       <c r="I214" s="56"/>
@@ -24328,13 +24331,13 @@
         <v>614</v>
       </c>
       <c r="E215" s="56" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F215" s="57" t="s">
         <v>346</v>
       </c>
       <c r="G215" s="57" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H215" s="56"/>
       <c r="I215" s="56"/>
@@ -24365,13 +24368,13 @@
         <v>615</v>
       </c>
       <c r="E216" s="56" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F216" s="57" t="s">
         <v>346</v>
       </c>
       <c r="G216" s="57" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H216" s="56"/>
       <c r="I216" s="56"/>
@@ -24402,13 +24405,13 @@
         <v>616</v>
       </c>
       <c r="E217" s="56" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F217" s="57" t="s">
         <v>346</v>
       </c>
       <c r="G217" s="57" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H217" s="56"/>
       <c r="I217" s="56"/>
@@ -24439,13 +24442,13 @@
         <v>617</v>
       </c>
       <c r="E218" s="56" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F218" s="57" t="s">
         <v>346</v>
       </c>
       <c r="G218" s="57" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H218" s="56"/>
       <c r="I218" s="56"/>
@@ -24476,7 +24479,7 @@
         <v>353</v>
       </c>
       <c r="E219" s="56" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F219" s="57"/>
       <c r="G219" s="57"/>
@@ -24505,7 +24508,7 @@
         <v>344</v>
       </c>
       <c r="E220" s="56" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F220" s="57"/>
       <c r="G220" s="57"/>
@@ -24633,10 +24636,10 @@
         <v>343</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E225" s="56" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F225" s="57"/>
       <c r="G225" s="57"/>
@@ -24679,10 +24682,10 @@
         <v>358</v>
       </c>
       <c r="D227" s="56" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E227" s="56" t="s">
         <v>1650</v>
-      </c>
-      <c r="E227" s="56" t="s">
-        <v>1651</v>
       </c>
       <c r="F227" s="57"/>
       <c r="G227" s="57"/>
@@ -24738,7 +24741,7 @@
         <v>344</v>
       </c>
       <c r="E229" s="56" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F229" s="57"/>
       <c r="G229" s="57"/>
@@ -24765,7 +24768,7 @@
         <v>619</v>
       </c>
       <c r="E230" s="56" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F230" s="57" t="s">
         <v>362</v>
@@ -24796,7 +24799,7 @@
         <v>620</v>
       </c>
       <c r="E231" s="56" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F231" s="57" t="s">
         <v>362</v>
@@ -24827,7 +24830,7 @@
         <v>621</v>
       </c>
       <c r="E232" s="56" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F232" s="57" t="s">
         <v>362</v>
@@ -24858,7 +24861,7 @@
         <v>622</v>
       </c>
       <c r="E233" s="56" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F233" s="57" t="s">
         <v>362</v>
@@ -24889,7 +24892,7 @@
         <v>623</v>
       </c>
       <c r="E234" s="56" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F234" s="57" t="s">
         <v>362</v>
@@ -24920,7 +24923,7 @@
         <v>624</v>
       </c>
       <c r="E235" s="56" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F235" s="57" t="s">
         <v>362</v>
@@ -24951,7 +24954,7 @@
         <v>625</v>
       </c>
       <c r="E236" s="56" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F236" s="57" t="s">
         <v>362</v>
@@ -24982,7 +24985,7 @@
         <v>370</v>
       </c>
       <c r="E237" s="56" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F237" s="57" t="s">
         <v>362</v>
@@ -25013,7 +25016,7 @@
         <v>721</v>
       </c>
       <c r="E238" s="56" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F238" s="57" t="s">
         <v>362</v>
@@ -25044,7 +25047,7 @@
         <v>626</v>
       </c>
       <c r="E239" s="56" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F239" s="57" t="s">
         <v>362</v>
@@ -25075,7 +25078,7 @@
         <v>374</v>
       </c>
       <c r="E240" s="56" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F240" s="57" t="s">
         <v>362</v>
@@ -25106,7 +25109,7 @@
         <v>344</v>
       </c>
       <c r="E241" s="56" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F241" s="57"/>
       <c r="G241" s="57"/>
@@ -25309,10 +25312,10 @@
         <v>358</v>
       </c>
       <c r="D249" s="56" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E249" s="56" t="s">
         <v>1650</v>
-      </c>
-      <c r="E249" s="56" t="s">
-        <v>1651</v>
       </c>
       <c r="F249" s="57"/>
       <c r="G249" s="57"/>
@@ -25354,10 +25357,10 @@
         <v>735</v>
       </c>
       <c r="D251" s="56" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E251" s="56" t="s">
         <v>1702</v>
-      </c>
-      <c r="E251" s="56" t="s">
-        <v>1703</v>
       </c>
       <c r="F251" s="56"/>
       <c r="G251" s="56"/>
@@ -25412,7 +25415,7 @@
         <v>736</v>
       </c>
       <c r="E253" s="56" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F253" s="56"/>
       <c r="G253" s="56"/>
@@ -25436,7 +25439,7 @@
         <v>737</v>
       </c>
       <c r="E254" s="56" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F254" s="56"/>
       <c r="G254" s="56"/>
@@ -25464,7 +25467,7 @@
         <v>738</v>
       </c>
       <c r="E255" s="56" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F255" s="56"/>
       <c r="G255" s="56"/>
@@ -25488,7 +25491,7 @@
         <v>739</v>
       </c>
       <c r="E256" s="56" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F256" s="56"/>
       <c r="G256" s="56"/>
@@ -25516,7 +25519,7 @@
         <v>741</v>
       </c>
       <c r="E257" s="56" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="F257" s="57"/>
       <c r="G257" s="57"/>
@@ -25542,7 +25545,7 @@
         <v>742</v>
       </c>
       <c r="E258" s="56" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F258" s="56"/>
       <c r="G258" s="56"/>
@@ -25568,7 +25571,7 @@
         <v>743</v>
       </c>
       <c r="E259" s="56" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F259" s="56"/>
       <c r="G259" s="56"/>
@@ -25592,7 +25595,7 @@
         <v>744</v>
       </c>
       <c r="E260" s="56" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F260" s="56"/>
       <c r="G260" s="56"/>
@@ -25618,7 +25621,7 @@
         <v>745</v>
       </c>
       <c r="E261" s="56" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F261" s="56"/>
       <c r="G261" s="56"/>
@@ -25644,7 +25647,7 @@
         <v>732</v>
       </c>
       <c r="E262" s="56" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F262" s="56"/>
       <c r="G262" s="56"/>
@@ -25668,7 +25671,7 @@
         <v>746</v>
       </c>
       <c r="E263" s="56" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F263" s="56"/>
       <c r="G263" s="56"/>
@@ -25745,10 +25748,10 @@
         <v>735</v>
       </c>
       <c r="D266" s="56" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E266" s="56" t="s">
         <v>1702</v>
-      </c>
-      <c r="E266" s="56" t="s">
-        <v>1703</v>
       </c>
       <c r="F266" s="56"/>
       <c r="G266" s="56"/>
@@ -25792,7 +25795,7 @@
         <v>386</v>
       </c>
       <c r="E268" s="56" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F268" s="57"/>
       <c r="G268" s="57"/>
@@ -25819,7 +25822,7 @@
         <v>388</v>
       </c>
       <c r="E269" s="56" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F269" s="57"/>
       <c r="G269" s="57"/>
@@ -25846,7 +25849,7 @@
         <v>386</v>
       </c>
       <c r="E270" s="56" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F270" s="56"/>
       <c r="G270" s="56"/>
@@ -30855,7 +30858,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -30889,7 +30892,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -30903,7 +30906,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -30937,7 +30940,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -30951,7 +30954,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -30971,7 +30974,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -30999,7 +31002,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31020,7 +31023,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E18" s="45"/>
     </row>
@@ -31050,7 +31053,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E20" s="45"/>
     </row>
@@ -31065,7 +31068,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E21" s="45"/>
     </row>
@@ -31087,7 +31090,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="95" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E23" s="45"/>
     </row>
@@ -31117,7 +31120,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E25" s="45"/>
     </row>
@@ -31138,7 +31141,7 @@
         <v>51</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -31152,7 +31155,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31172,7 +31175,7 @@
         <v>51</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -31186,7 +31189,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -31200,7 +31203,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31220,7 +31223,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31234,7 +31237,7 @@
         <v>52</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31248,7 +31251,7 @@
         <v>57</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31268,7 +31271,7 @@
         <v>59</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31282,7 +31285,7 @@
         <v>60</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31296,7 +31299,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31310,7 +31313,7 @@
         <v>62</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31324,7 +31327,7 @@
         <v>63</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -31344,7 +31347,7 @@
         <v>65</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31358,7 +31361,7 @@
         <v>66</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31372,7 +31375,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -31386,7 +31389,7 @@
         <v>68</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
@@ -31412,10 +31415,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31426,10 +31429,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31443,10 +31446,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31457,10 +31460,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31471,10 +31474,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31485,10 +31488,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31499,10 +31502,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -31513,10 +31516,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38400,10 +38403,10 @@
         <v>2</v>
       </c>
       <c r="C493" s="46" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D493" s="46" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="494" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38451,7 +38454,7 @@
         <v>396</v>
       </c>
       <c r="D497" s="47" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="498" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38465,7 +38468,7 @@
         <v>397</v>
       </c>
       <c r="D498" s="47" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="499" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38479,7 +38482,7 @@
         <v>398</v>
       </c>
       <c r="D499" s="47" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="500" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38493,7 +38496,7 @@
         <v>399</v>
       </c>
       <c r="D500" s="47" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="501" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38507,7 +38510,7 @@
         <v>68</v>
       </c>
       <c r="D501" s="47" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="502" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38527,7 +38530,7 @@
         <v>400</v>
       </c>
       <c r="D503" s="47" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="504" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38541,7 +38544,7 @@
         <v>401</v>
       </c>
       <c r="D504" s="47" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="505" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38555,7 +38558,7 @@
         <v>402</v>
       </c>
       <c r="D505" s="47" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="506" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38569,7 +38572,7 @@
         <v>403</v>
       </c>
       <c r="D506" s="47" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="507" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38583,7 +38586,7 @@
         <v>404</v>
       </c>
       <c r="D507" s="47" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="508" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38597,7 +38600,7 @@
         <v>405</v>
       </c>
       <c r="D508" s="47" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="509" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38611,7 +38614,7 @@
         <v>57</v>
       </c>
       <c r="D509" s="47" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="510" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38625,7 +38628,7 @@
         <v>406</v>
       </c>
       <c r="D510" s="47" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="511" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38643,7 +38646,7 @@
         <v>407</v>
       </c>
       <c r="D512" s="47" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="513" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38657,7 +38660,7 @@
         <v>408</v>
       </c>
       <c r="D513" s="47" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="514" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38671,7 +38674,7 @@
         <v>409</v>
       </c>
       <c r="D514" s="47" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="515" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38685,7 +38688,7 @@
         <v>410</v>
       </c>
       <c r="D515" s="47" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="516" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38699,7 +38702,7 @@
         <v>411</v>
       </c>
       <c r="D516" s="47" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="517" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -38713,7 +38716,7 @@
         <v>412</v>
       </c>
       <c r="D517" s="47" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="518" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38727,7 +38730,7 @@
         <v>413</v>
       </c>
       <c r="D518" s="47" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="519" spans="1:4" s="69" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -38741,7 +38744,7 @@
         <v>406</v>
       </c>
       <c r="D519" s="14" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="520" spans="1:4" s="70" customFormat="1" x14ac:dyDescent="0.2">
@@ -38769,7 +38772,7 @@
         <v>416</v>
       </c>
       <c r="D522" s="12" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="523" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38783,7 +38786,7 @@
         <v>417</v>
       </c>
       <c r="D523" s="45" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="524" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38797,7 +38800,7 @@
         <v>418</v>
       </c>
       <c r="D524" s="45" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="525" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38811,7 +38814,7 @@
         <v>419</v>
       </c>
       <c r="D525" s="45" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="526" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38825,7 +38828,7 @@
         <v>420</v>
       </c>
       <c r="D526" s="45" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="527" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38839,7 +38842,7 @@
         <v>421</v>
       </c>
       <c r="D527" s="45" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="528" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38853,7 +38856,7 @@
         <v>54</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="529" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38872,7 +38875,7 @@
         <v>423</v>
       </c>
       <c r="D530" s="47" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="531" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38886,7 +38889,7 @@
         <v>424</v>
       </c>
       <c r="D531" s="47" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="532" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38900,7 +38903,7 @@
         <v>425</v>
       </c>
       <c r="D532" s="47" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="533" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38914,7 +38917,7 @@
         <v>426</v>
       </c>
       <c r="D533" s="47" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="534" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38928,7 +38931,7 @@
         <v>427</v>
       </c>
       <c r="D534" s="47" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="535" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38942,7 +38945,7 @@
         <v>428</v>
       </c>
       <c r="D535" s="47" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="536" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38956,7 +38959,7 @@
         <v>429</v>
       </c>
       <c r="D536" s="47" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="537" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38976,7 +38979,7 @@
         <v>73</v>
       </c>
       <c r="D538" s="47" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="539" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -38990,7 +38993,7 @@
         <v>74</v>
       </c>
       <c r="D539" s="47" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="540" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -39004,7 +39007,7 @@
         <v>75</v>
       </c>
       <c r="D540" s="47" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="E540" s="46"/>
     </row>
@@ -39019,7 +39022,7 @@
         <v>76</v>
       </c>
       <c r="D541" s="47" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E541" s="46"/>
     </row>
@@ -39034,7 +39037,7 @@
         <v>77</v>
       </c>
       <c r="D542" s="47" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E542" s="46"/>
     </row>
@@ -39049,7 +39052,7 @@
         <v>54</v>
       </c>
       <c r="D543" s="47" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E543" s="46"/>
     </row>
@@ -39064,7 +39067,7 @@
         <v>78</v>
       </c>
       <c r="D544" s="47" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E544" s="46"/>
     </row>
@@ -39086,7 +39089,7 @@
         <v>431</v>
       </c>
       <c r="D546" s="47" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E546" s="46"/>
     </row>
@@ -39101,7 +39104,7 @@
         <v>723</v>
       </c>
       <c r="D547" s="47" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E547" s="46"/>
     </row>
@@ -39116,7 +39119,7 @@
         <v>432</v>
       </c>
       <c r="D548" s="47" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E548" s="46"/>
     </row>
@@ -39131,7 +39134,7 @@
         <v>433</v>
       </c>
       <c r="D549" s="47" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E549" s="46"/>
     </row>
@@ -39146,7 +39149,7 @@
         <v>434</v>
       </c>
       <c r="D550" s="47" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E550" s="46"/>
     </row>
@@ -39161,7 +39164,7 @@
         <v>435</v>
       </c>
       <c r="D551" s="74" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E551" s="46"/>
     </row>
@@ -39176,7 +39179,7 @@
         <v>436</v>
       </c>
       <c r="D552" s="14" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E552" s="11"/>
     </row>
@@ -39207,7 +39210,7 @@
         <v>439</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E555" s="12"/>
     </row>
@@ -39222,7 +39225,7 @@
         <v>440</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E556" s="45"/>
     </row>
@@ -39237,7 +39240,7 @@
         <v>441</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E557" s="45"/>
     </row>
@@ -39252,7 +39255,7 @@
         <v>442</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E558" s="45"/>
     </row>
@@ -39272,7 +39275,7 @@
         <v>719</v>
       </c>
       <c r="D560" s="10" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="561" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39286,7 +39289,7 @@
         <v>444</v>
       </c>
       <c r="D561" s="46" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="562" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39300,7 +39303,7 @@
         <v>720</v>
       </c>
       <c r="D562" s="46" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="563" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39320,7 +39323,7 @@
         <v>446</v>
       </c>
       <c r="D564" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="565" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39334,7 +39337,7 @@
         <v>447</v>
       </c>
       <c r="D565" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="566" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39348,7 +39351,7 @@
         <v>448</v>
       </c>
       <c r="D566" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="567" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39362,7 +39365,7 @@
         <v>449</v>
       </c>
       <c r="D567" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="568" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39376,7 +39379,7 @@
         <v>450</v>
       </c>
       <c r="D568" s="10" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="569" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39390,7 +39393,7 @@
         <v>451</v>
       </c>
       <c r="D569" s="10" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="570" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39404,7 +39407,7 @@
         <v>452</v>
       </c>
       <c r="D570" s="10" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="571" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39424,7 +39427,7 @@
         <v>454</v>
       </c>
       <c r="D572" s="10" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="573" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39438,7 +39441,7 @@
         <v>455</v>
       </c>
       <c r="D573" s="10" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="574" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39452,7 +39455,7 @@
         <v>456</v>
       </c>
       <c r="D574" s="10" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="575" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39470,7 +39473,7 @@
         <v>458</v>
       </c>
       <c r="D576" s="10" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="577" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39484,7 +39487,7 @@
         <v>459</v>
       </c>
       <c r="D577" s="10" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="578" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39498,7 +39501,7 @@
         <v>460</v>
       </c>
       <c r="D578" s="10" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="579" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39518,7 +39521,7 @@
         <v>462</v>
       </c>
       <c r="D580" s="10" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="581" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39532,7 +39535,7 @@
         <v>463</v>
       </c>
       <c r="D581" s="10" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="582" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39546,7 +39549,7 @@
         <v>464</v>
       </c>
       <c r="D582" s="46" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="583" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39560,7 +39563,7 @@
         <v>465</v>
       </c>
       <c r="D583" s="10" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="584" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39574,7 +39577,7 @@
         <v>466</v>
       </c>
       <c r="D584" s="46" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="585" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39588,7 +39591,7 @@
         <v>467</v>
       </c>
       <c r="D585" s="46" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="586" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39602,7 +39605,7 @@
         <v>54</v>
       </c>
       <c r="D586" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="587" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39622,7 +39625,7 @@
         <v>469</v>
       </c>
       <c r="D588" s="10" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="589" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39636,7 +39639,7 @@
         <v>470</v>
       </c>
       <c r="D589" s="10" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="590" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39650,7 +39653,7 @@
         <v>471</v>
       </c>
       <c r="D590" s="10" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="591" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39664,7 +39667,7 @@
         <v>472</v>
       </c>
       <c r="D591" s="10" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="592" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39678,7 +39681,7 @@
         <v>473</v>
       </c>
       <c r="D592" s="10" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="593" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -39698,7 +39701,7 @@
         <v>475</v>
       </c>
       <c r="D594" s="46" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="595" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -39712,7 +39715,7 @@
         <v>476</v>
       </c>
       <c r="D595" s="46" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="596" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -39726,7 +39729,7 @@
         <v>477</v>
       </c>
       <c r="D596" s="46" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="597" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -39740,7 +39743,7 @@
         <v>478</v>
       </c>
       <c r="D597" s="46" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="598" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -39754,7 +39757,7 @@
         <v>479</v>
       </c>
       <c r="D598" s="46" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="599" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -39768,7 +39771,7 @@
         <v>480</v>
       </c>
       <c r="D599" s="46" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="600" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -39807,7 +39810,7 @@
         <v>483</v>
       </c>
       <c r="D604" s="102" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E604" s="45"/>
     </row>
@@ -39822,7 +39825,7 @@
         <v>484</v>
       </c>
       <c r="D605" s="102" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E605" s="45"/>
     </row>
@@ -39837,7 +39840,7 @@
         <v>485</v>
       </c>
       <c r="D606" s="102" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E606" s="45"/>
     </row>
@@ -39852,7 +39855,7 @@
         <v>486</v>
       </c>
       <c r="D607" s="102" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E607" s="45"/>
     </row>
@@ -39889,7 +39892,7 @@
         <v>489</v>
       </c>
       <c r="D611" s="104" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E611" s="12"/>
     </row>
@@ -39904,7 +39907,7 @@
         <v>490</v>
       </c>
       <c r="D612" s="103" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E612" s="45"/>
     </row>
@@ -39919,7 +39922,7 @@
         <v>491</v>
       </c>
       <c r="D613" s="102" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E613" s="45"/>
     </row>
@@ -39934,7 +39937,7 @@
         <v>51</v>
       </c>
       <c r="D614" s="102" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E614" s="45"/>
     </row>
@@ -39949,7 +39952,7 @@
         <v>52</v>
       </c>
       <c r="D615" s="103" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E615" s="45"/>
     </row>
@@ -39964,7 +39967,7 @@
         <v>57</v>
       </c>
       <c r="D616" s="103" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E616" s="45"/>
     </row>
@@ -39979,7 +39982,7 @@
         <v>492</v>
       </c>
       <c r="D617" s="103" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E617" s="45"/>
     </row>
@@ -39994,7 +39997,7 @@
         <v>47</v>
       </c>
       <c r="D618" s="103" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E618" s="45"/>
     </row>
@@ -40009,7 +40012,7 @@
         <v>41</v>
       </c>
       <c r="D619" s="103" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E619" s="45"/>
     </row>
@@ -40029,7 +40032,7 @@
         <v>494</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E621" s="45"/>
     </row>
@@ -40044,7 +40047,7 @@
         <v>495</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E622" s="45"/>
     </row>
@@ -40059,7 +40062,7 @@
         <v>496</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E623" s="45"/>
     </row>
@@ -40074,7 +40077,7 @@
         <v>497</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E624" s="45"/>
     </row>
@@ -40089,7 +40092,7 @@
         <v>54</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E625" s="45"/>
     </row>
@@ -40110,7 +40113,7 @@
         <v>489</v>
       </c>
       <c r="D627" s="45" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="628" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40124,7 +40127,7 @@
         <v>490</v>
       </c>
       <c r="D628" s="45" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="629" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40138,7 +40141,7 @@
         <v>499</v>
       </c>
       <c r="D629" s="45" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="630" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40152,7 +40155,7 @@
         <v>500</v>
       </c>
       <c r="D630" s="45" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="631" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40166,7 +40169,7 @@
         <v>492</v>
       </c>
       <c r="D631" s="45" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="632" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40180,7 +40183,7 @@
         <v>71</v>
       </c>
       <c r="D632" s="45" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="633" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40198,7 +40201,7 @@
         <v>52</v>
       </c>
       <c r="D634" s="47" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="635" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40212,7 +40215,7 @@
         <v>51</v>
       </c>
       <c r="D635" s="47" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="636" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40226,7 +40229,7 @@
         <v>57</v>
       </c>
       <c r="D636" s="47" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="637" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40240,7 +40243,7 @@
         <v>502</v>
       </c>
       <c r="D637" s="47" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="638" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40268,7 +40271,7 @@
         <v>504</v>
       </c>
       <c r="D639" s="10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="640" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40282,7 +40285,7 @@
         <v>505</v>
       </c>
       <c r="D640" s="10" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="641" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40296,7 +40299,7 @@
         <v>506</v>
       </c>
       <c r="D641" s="10" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="642" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40310,7 +40313,7 @@
         <v>480</v>
       </c>
       <c r="D642" s="10" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="643" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40330,7 +40333,7 @@
         <v>508</v>
       </c>
       <c r="D644" s="10" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="645" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40344,7 +40347,7 @@
         <v>509</v>
       </c>
       <c r="D645" s="10" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="646" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40358,7 +40361,7 @@
         <v>510</v>
       </c>
       <c r="D646" s="10" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="647" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40372,7 +40375,7 @@
         <v>511</v>
       </c>
       <c r="D647" s="10" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="648" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40386,7 +40389,7 @@
         <v>512</v>
       </c>
       <c r="D648" s="10" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="649" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40400,7 +40403,7 @@
         <v>513</v>
       </c>
       <c r="D649" s="10" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="650" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40414,7 +40417,7 @@
         <v>514</v>
       </c>
       <c r="D650" s="10" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="651" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40428,7 +40431,7 @@
         <v>515</v>
       </c>
       <c r="D651" s="10" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="652" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40442,7 +40445,7 @@
         <v>516</v>
       </c>
       <c r="D652" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="653" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40470,7 +40473,7 @@
         <v>518</v>
       </c>
       <c r="D654" s="10" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="655" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40484,7 +40487,7 @@
         <v>519</v>
       </c>
       <c r="D655" s="10" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="656" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -40498,7 +40501,7 @@
         <v>520</v>
       </c>
       <c r="D656" s="17" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="657" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -40524,7 +40527,7 @@
         <v>523</v>
       </c>
       <c r="D659" s="7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="660" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40538,7 +40541,7 @@
         <v>524</v>
       </c>
       <c r="D660" s="46" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="661" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40552,7 +40555,7 @@
         <v>525</v>
       </c>
       <c r="D661" s="46" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="662" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -40566,7 +40569,7 @@
         <v>526</v>
       </c>
       <c r="D662" s="11" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="663" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -40594,7 +40597,7 @@
         <v>528</v>
       </c>
       <c r="D665" s="7" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="666" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40608,7 +40611,7 @@
         <v>529</v>
       </c>
       <c r="D666" s="46" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="667" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40622,7 +40625,7 @@
         <v>530</v>
       </c>
       <c r="D667" s="46" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="668" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40636,7 +40639,7 @@
         <v>531</v>
       </c>
       <c r="D668" s="46" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="669" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40650,7 +40653,7 @@
         <v>532</v>
       </c>
       <c r="D669" s="46" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="670" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -40664,7 +40667,7 @@
         <v>533</v>
       </c>
       <c r="D670" s="11" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="671" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -40690,7 +40693,7 @@
         <v>39</v>
       </c>
       <c r="D673" s="18" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="674" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40704,7 +40707,7 @@
         <v>535</v>
       </c>
       <c r="D674" s="47" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="675" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -40718,7 +40721,7 @@
         <v>536</v>
       </c>
       <c r="D675" s="47" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="676" spans="1:5" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -40732,7 +40735,7 @@
         <v>537</v>
       </c>
       <c r="D676" s="14" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="677" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
@@ -40760,7 +40763,7 @@
         <v>540</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E679" s="12"/>
     </row>
@@ -40775,7 +40778,7 @@
         <v>541</v>
       </c>
       <c r="D680" s="4" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E680" s="45"/>
     </row>
@@ -40790,7 +40793,7 @@
         <v>542</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E681" s="45"/>
     </row>
@@ -40805,7 +40808,7 @@
         <v>543</v>
       </c>
       <c r="D682" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E682" s="45"/>
     </row>
@@ -40820,7 +40823,7 @@
         <v>54</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E683" s="45"/>
     </row>
@@ -40855,7 +40858,7 @@
         <v>546</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E686" s="45"/>
     </row>
@@ -40870,7 +40873,7 @@
         <v>547</v>
       </c>
       <c r="D687" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E687" s="45"/>
     </row>
@@ -40900,7 +40903,7 @@
         <v>549</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E689" s="45"/>
     </row>
@@ -40915,7 +40918,7 @@
         <v>550</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E690" s="45"/>
     </row>
@@ -40935,7 +40938,7 @@
         <v>552</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E692" s="45"/>
     </row>
@@ -40950,7 +40953,7 @@
         <v>553</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E693" s="45"/>
     </row>
@@ -40965,7 +40968,7 @@
         <v>554</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E694" s="45"/>
     </row>
@@ -40980,7 +40983,7 @@
         <v>555</v>
       </c>
       <c r="D695" s="47" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="696" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -40994,7 +40997,7 @@
         <v>556</v>
       </c>
       <c r="D696" s="47" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="697" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -41008,7 +41011,7 @@
         <v>557</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="698" spans="1:5" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -41041,7 +41044,7 @@
         <v>560</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E701" s="45"/>
     </row>
@@ -41056,7 +41059,7 @@
         <v>561</v>
       </c>
       <c r="D702" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E702" s="45"/>
     </row>
@@ -41071,7 +41074,7 @@
         <v>562</v>
       </c>
       <c r="D703" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E703" s="45"/>
     </row>
@@ -41086,7 +41089,7 @@
         <v>550</v>
       </c>
       <c r="D704" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E704" s="45"/>
     </row>
@@ -41111,7 +41114,7 @@
         <v>552</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E707" s="45"/>
     </row>
@@ -41126,7 +41129,7 @@
         <v>553</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E708" s="45"/>
     </row>
@@ -41141,7 +41144,7 @@
         <v>554</v>
       </c>
       <c r="D709" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E709" s="45"/>
     </row>
@@ -41156,7 +41159,7 @@
         <v>555</v>
       </c>
       <c r="D710" s="47" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="711" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -41170,7 +41173,7 @@
         <v>556</v>
       </c>
       <c r="D711" s="47" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="712" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -41209,7 +41212,7 @@
         <v>566</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E716" s="45"/>
     </row>
@@ -41224,7 +41227,7 @@
         <v>434</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E717" s="45"/>
     </row>
@@ -41239,7 +41242,7 @@
         <v>567</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E718" s="45"/>
     </row>
@@ -41254,7 +41257,7 @@
         <v>568</v>
       </c>
       <c r="D719" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E719" s="45"/>
     </row>
@@ -41269,7 +41272,7 @@
         <v>569</v>
       </c>
       <c r="D720" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E720" s="45"/>
     </row>
@@ -41284,7 +41287,7 @@
         <v>570</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E721" s="45"/>
     </row>
@@ -41299,7 +41302,7 @@
         <v>571</v>
       </c>
       <c r="D722" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E722" s="45"/>
     </row>
@@ -41314,7 +41317,7 @@
         <v>572</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E723" s="45"/>
     </row>
@@ -41329,7 +41332,7 @@
         <v>573</v>
       </c>
       <c r="D724" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E724" s="45"/>
     </row>
@@ -41364,7 +41367,7 @@
         <v>576</v>
       </c>
       <c r="D728" s="46" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E728" s="46"/>
     </row>
@@ -41379,7 +41382,7 @@
         <v>577</v>
       </c>
       <c r="D729" s="46" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E729" s="46"/>
     </row>
@@ -41394,7 +41397,7 @@
         <v>578</v>
       </c>
       <c r="D730" s="46" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E730" s="46"/>
     </row>
@@ -41409,7 +41412,7 @@
         <v>579</v>
       </c>
       <c r="D731" s="47" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E731" s="46"/>
     </row>
@@ -41430,7 +41433,7 @@
         <v>581</v>
       </c>
       <c r="D733" s="46" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E733" s="82"/>
     </row>
@@ -41445,7 +41448,7 @@
         <v>582</v>
       </c>
       <c r="D734" s="46" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E734" s="82"/>
     </row>
@@ -41460,7 +41463,7 @@
         <v>583</v>
       </c>
       <c r="D735" s="46" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E735" s="82"/>
     </row>
@@ -41475,7 +41478,7 @@
         <v>584</v>
       </c>
       <c r="D736" s="46" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E736" s="82"/>
     </row>
@@ -42489,7 +42492,7 @@
         <v>1224</v>
       </c>
       <c r="D832" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="833" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42503,7 +42506,7 @@
         <v>1225</v>
       </c>
       <c r="D833" s="46" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="834" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42517,7 +42520,7 @@
         <v>1226</v>
       </c>
       <c r="D834" s="46" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="835" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42531,7 +42534,7 @@
         <v>1227</v>
       </c>
       <c r="D835" s="46" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="836" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42545,7 +42548,7 @@
         <v>1228</v>
       </c>
       <c r="D836" s="46" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="837" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42559,7 +42562,7 @@
         <v>1229</v>
       </c>
       <c r="D837" s="46" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="838" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42573,7 +42576,7 @@
         <v>1230</v>
       </c>
       <c r="D838" s="46" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="839" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42587,7 +42590,7 @@
         <v>1231</v>
       </c>
       <c r="D839" s="46" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="840" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42601,7 +42604,7 @@
         <v>1232</v>
       </c>
       <c r="D840" s="46" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="841" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42615,7 +42618,7 @@
         <v>1233</v>
       </c>
       <c r="D841" s="46" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="842" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42629,7 +42632,7 @@
         <v>54</v>
       </c>
       <c r="D842" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="843" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -42649,7 +42652,7 @@
         <v>1235</v>
       </c>
       <c r="D844" s="46" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="845" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42663,7 +42666,7 @@
         <v>1236</v>
       </c>
       <c r="D845" s="46" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="846" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42753,7 +42756,7 @@
         <v>1240</v>
       </c>
       <c r="D853" s="7" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="854" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42767,7 +42770,7 @@
         <v>1241</v>
       </c>
       <c r="D854" s="46" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="855" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42781,7 +42784,7 @@
         <v>1242</v>
       </c>
       <c r="D855" s="46" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="856" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42795,7 +42798,7 @@
         <v>54</v>
       </c>
       <c r="D856" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="857" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42815,7 +42818,7 @@
         <v>1244</v>
       </c>
       <c r="D858" s="46" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="859" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42829,7 +42832,7 @@
         <v>1245</v>
       </c>
       <c r="D859" s="46" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="860" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42843,7 +42846,7 @@
         <v>1246</v>
       </c>
       <c r="D860" s="46" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="861" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42857,7 +42860,7 @@
         <v>54</v>
       </c>
       <c r="D861" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="862" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42877,7 +42880,7 @@
         <v>1248</v>
       </c>
       <c r="D863" s="46" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="864" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42891,7 +42894,7 @@
         <v>1249</v>
       </c>
       <c r="D864" s="46" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="865" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42905,7 +42908,7 @@
         <v>1250</v>
       </c>
       <c r="D865" s="46" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="866" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42919,7 +42922,7 @@
         <v>54</v>
       </c>
       <c r="D866" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="867" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42939,7 +42942,7 @@
         <v>1252</v>
       </c>
       <c r="D868" s="46" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="869" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42953,7 +42956,7 @@
         <v>1253</v>
       </c>
       <c r="D869" s="46" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="870" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42967,7 +42970,7 @@
         <v>1254</v>
       </c>
       <c r="D870" s="46" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="871" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42981,7 +42984,7 @@
         <v>1255</v>
       </c>
       <c r="D871" s="46" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="872" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -42995,7 +42998,7 @@
         <v>1256</v>
       </c>
       <c r="D872" s="46" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="873" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43009,7 +43012,7 @@
         <v>1257</v>
       </c>
       <c r="D873" s="46" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="874" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43029,7 +43032,7 @@
         <v>1259</v>
       </c>
       <c r="D875" s="46" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="876" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43043,7 +43046,7 @@
         <v>1260</v>
       </c>
       <c r="D876" s="46" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="877" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43057,7 +43060,7 @@
         <v>1261</v>
       </c>
       <c r="D877" s="46" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="878" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43071,7 +43074,7 @@
         <v>1262</v>
       </c>
       <c r="D878" s="46" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="879" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43085,7 +43088,7 @@
         <v>1263</v>
       </c>
       <c r="D879" s="46" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="880" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43099,7 +43102,7 @@
         <v>54</v>
       </c>
       <c r="D880" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="881" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43119,7 +43122,7 @@
         <v>1265</v>
       </c>
       <c r="D882" s="46" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="883" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43133,7 +43136,7 @@
         <v>1260</v>
       </c>
       <c r="D883" s="46" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="884" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43147,7 +43150,7 @@
         <v>1266</v>
       </c>
       <c r="D884" s="46" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="885" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43161,7 +43164,7 @@
         <v>54</v>
       </c>
       <c r="D885" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="886" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43181,7 +43184,7 @@
         <v>1268</v>
       </c>
       <c r="D887" s="46" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="888" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43195,7 +43198,7 @@
         <v>1269</v>
       </c>
       <c r="D888" s="46" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="889" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43209,7 +43212,7 @@
         <v>1270</v>
       </c>
       <c r="D889" s="46" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="890" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43223,7 +43226,7 @@
         <v>1271</v>
       </c>
       <c r="D890" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="891" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43237,7 +43240,7 @@
         <v>54</v>
       </c>
       <c r="D891" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="892" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43257,7 +43260,7 @@
         <v>1273</v>
       </c>
       <c r="D893" s="46" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="894" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43271,7 +43274,7 @@
         <v>1274</v>
       </c>
       <c r="D894" s="46" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="895" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43285,7 +43288,7 @@
         <v>1275</v>
       </c>
       <c r="D895" s="46" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="896" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43299,7 +43302,7 @@
         <v>54</v>
       </c>
       <c r="D896" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="897" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43319,7 +43322,7 @@
         <v>1277</v>
       </c>
       <c r="D898" s="46" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="899" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43333,7 +43336,7 @@
         <v>1278</v>
       </c>
       <c r="D899" s="46" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="900" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43347,7 +43350,7 @@
         <v>1279</v>
       </c>
       <c r="D900" s="46" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="901" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43361,7 +43364,7 @@
         <v>1280</v>
       </c>
       <c r="D901" s="46" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="902" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43375,7 +43378,7 @@
         <v>1281</v>
       </c>
       <c r="D902" s="46" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="903" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43389,7 +43392,7 @@
         <v>54</v>
       </c>
       <c r="D903" s="46" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="904" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43409,7 +43412,7 @@
         <v>1283</v>
       </c>
       <c r="D905" s="46" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="906" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43423,7 +43426,7 @@
         <v>1284</v>
       </c>
       <c r="D906" s="46" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="907" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43437,7 +43440,7 @@
         <v>1285</v>
       </c>
       <c r="D907" s="46" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="908" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -43451,7 +43454,7 @@
         <v>1286</v>
       </c>
       <c r="D908" s="11" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="909" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
@@ -43479,7 +43482,7 @@
         <v>52</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="912" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43493,7 +43496,7 @@
         <v>51</v>
       </c>
       <c r="D912" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="913" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43507,7 +43510,7 @@
         <v>57</v>
       </c>
       <c r="D913" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="914" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43521,7 +43524,7 @@
         <v>1289</v>
       </c>
       <c r="D914" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="915" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43539,7 +43542,7 @@
         <v>1291</v>
       </c>
       <c r="D916" s="47" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="917" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -43567,7 +43570,7 @@
         <v>537</v>
       </c>
       <c r="D918" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="919" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -43599,7 +43602,7 @@
         <v>1294</v>
       </c>
       <c r="D922" s="18" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="923" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -43613,7 +43616,7 @@
         <v>1295</v>
       </c>
       <c r="D923" s="47" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="924" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -43627,7 +43630,7 @@
         <v>1296</v>
       </c>
       <c r="D924" s="25" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="925" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43641,7 +43644,7 @@
         <v>1297</v>
       </c>
       <c r="D925" s="10" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="926" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43655,7 +43658,7 @@
         <v>68</v>
       </c>
       <c r="D926" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="927" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43669,7 +43672,7 @@
         <v>1289</v>
       </c>
       <c r="D927" s="10" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="928" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43689,7 +43692,7 @@
         <v>1299</v>
       </c>
       <c r="D929" s="10" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="930" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43703,7 +43706,7 @@
         <v>1300</v>
       </c>
       <c r="D930" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="931" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43717,7 +43720,7 @@
         <v>1301</v>
       </c>
       <c r="D931" s="10" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="932" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43731,7 +43734,7 @@
         <v>1302</v>
       </c>
       <c r="D932" s="10" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="933" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -43745,7 +43748,7 @@
         <v>68</v>
       </c>
       <c r="D933" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="934" spans="1:4" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -43759,7 +43762,7 @@
         <v>1289</v>
       </c>
       <c r="D934" s="17" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="935" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -43787,7 +43790,7 @@
         <v>1306</v>
       </c>
       <c r="D937" s="140" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="938" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43801,7 +43804,7 @@
         <v>1308</v>
       </c>
       <c r="D938" s="28" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="939" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43815,7 +43818,7 @@
         <v>1310</v>
       </c>
       <c r="D939" s="28" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="940" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43829,7 +43832,7 @@
         <v>1312</v>
       </c>
       <c r="D940" s="28" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="941" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43843,7 +43846,7 @@
         <v>1314</v>
       </c>
       <c r="D941" s="28" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="942" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43857,7 +43860,7 @@
         <v>1316</v>
       </c>
       <c r="D942" s="28" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="943" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43871,7 +43874,7 @@
         <v>1318</v>
       </c>
       <c r="D943" s="28" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="944" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43885,7 +43888,7 @@
         <v>1320</v>
       </c>
       <c r="D944" s="28" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="945" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43899,7 +43902,7 @@
         <v>54</v>
       </c>
       <c r="D945" s="28" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="946" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -43919,7 +43922,7 @@
         <v>1322</v>
       </c>
       <c r="D947" s="103" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="948" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -43933,7 +43936,7 @@
         <v>1323</v>
       </c>
       <c r="D948" s="103" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="949" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -43947,7 +43950,7 @@
         <v>1324</v>
       </c>
       <c r="D949" s="103" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="950" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -43961,7 +43964,7 @@
         <v>1325</v>
       </c>
       <c r="D950" s="103" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="951" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -43975,7 +43978,7 @@
         <v>1326</v>
       </c>
       <c r="D951" s="103" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="952" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -43989,7 +43992,7 @@
         <v>1327</v>
       </c>
       <c r="D952" s="103" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="953" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44003,7 +44006,7 @@
         <v>1328</v>
       </c>
       <c r="D953" s="103" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="954" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44017,7 +44020,7 @@
         <v>1329</v>
       </c>
       <c r="D954" s="103" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="955" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44031,7 +44034,7 @@
         <v>1331</v>
       </c>
       <c r="D955" s="103" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="956" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44045,7 +44048,7 @@
         <v>1333</v>
       </c>
       <c r="D956" s="103" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="957" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44065,7 +44068,7 @@
         <v>1335</v>
       </c>
       <c r="D958" s="103" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="959" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44079,7 +44082,7 @@
         <v>1336</v>
       </c>
       <c r="D959" s="103" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="960" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44093,7 +44096,7 @@
         <v>1337</v>
       </c>
       <c r="D960" s="103" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="961" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44107,7 +44110,7 @@
         <v>1338</v>
       </c>
       <c r="D961" s="103" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="962" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44121,7 +44124,7 @@
         <v>1339</v>
       </c>
       <c r="D962" s="103" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="963" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44135,7 +44138,7 @@
         <v>1340</v>
       </c>
       <c r="D963" s="103" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="964" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44149,7 +44152,7 @@
         <v>1341</v>
       </c>
       <c r="D964" s="103" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="965" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44163,7 +44166,7 @@
         <v>1342</v>
       </c>
       <c r="D965" s="103" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="966" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44177,7 +44180,7 @@
         <v>1343</v>
       </c>
       <c r="D966" s="103" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="967" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44197,7 +44200,7 @@
         <v>1345</v>
       </c>
       <c r="D968" s="103" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="969" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44211,7 +44214,7 @@
         <v>1346</v>
       </c>
       <c r="D969" s="103" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="970" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44225,7 +44228,7 @@
         <v>1347</v>
       </c>
       <c r="D970" s="103" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="971" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44245,7 +44248,7 @@
         <v>1349</v>
       </c>
       <c r="D972" s="103" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="973" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44259,7 +44262,7 @@
         <v>1350</v>
       </c>
       <c r="D973" s="103" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="974" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44273,7 +44276,7 @@
         <v>1351</v>
       </c>
       <c r="D974" s="103" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="975" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44287,7 +44290,7 @@
         <v>1352</v>
       </c>
       <c r="D975" s="103" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="976" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44301,7 +44304,7 @@
         <v>1353</v>
       </c>
       <c r="D976" s="103" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="977" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44315,7 +44318,7 @@
         <v>1354</v>
       </c>
       <c r="D977" s="103" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="978" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44335,7 +44338,7 @@
         <v>1356</v>
       </c>
       <c r="D979" s="103" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="980" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44349,7 +44352,7 @@
         <v>1357</v>
       </c>
       <c r="D980" s="103" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="981" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44363,7 +44366,7 @@
         <v>1358</v>
       </c>
       <c r="D981" s="103" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="982" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44377,7 +44380,7 @@
         <v>1359</v>
       </c>
       <c r="D982" s="103" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="983" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44391,7 +44394,7 @@
         <v>1360</v>
       </c>
       <c r="D983" s="103" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="984" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44405,7 +44408,7 @@
         <v>1361</v>
       </c>
       <c r="D984" s="103" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="985" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44419,7 +44422,7 @@
         <v>1362</v>
       </c>
       <c r="D985" s="103" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="986" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44439,7 +44442,7 @@
         <v>1364</v>
       </c>
       <c r="D987" s="103" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="988" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44453,7 +44456,7 @@
         <v>1365</v>
       </c>
       <c r="D988" s="103" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="989" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44467,7 +44470,7 @@
         <v>1366</v>
       </c>
       <c r="D989" s="103" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="990" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44481,7 +44484,7 @@
         <v>1367</v>
       </c>
       <c r="D990" s="103" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="991" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44495,7 +44498,7 @@
         <v>1368</v>
       </c>
       <c r="D991" s="103" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="992" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44515,7 +44518,7 @@
         <v>1370</v>
       </c>
       <c r="D993" s="103" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="994" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44529,7 +44532,7 @@
         <v>1371</v>
       </c>
       <c r="D994" s="103" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="995" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44543,7 +44546,7 @@
         <v>1372</v>
       </c>
       <c r="D995" s="103" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="996" spans="1:4" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -44557,7 +44560,7 @@
         <v>1373</v>
       </c>
       <c r="D996" s="103" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="997" spans="1:4" s="144" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -44571,7 +44574,7 @@
         <v>1374</v>
       </c>
       <c r="D997" s="144" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="998" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -44599,7 +44602,7 @@
         <v>1377</v>
       </c>
       <c r="D1000" s="104" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1001" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44613,7 +44616,7 @@
         <v>1378</v>
       </c>
       <c r="D1001" s="102" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1002" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44627,7 +44630,7 @@
         <v>554</v>
       </c>
       <c r="D1002" s="102" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1003" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44641,7 +44644,7 @@
         <v>1379</v>
       </c>
       <c r="D1003" s="102" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1004" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44675,7 +44678,7 @@
         <v>546</v>
       </c>
       <c r="D1006" s="147" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1007" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44717,7 +44720,7 @@
         <v>1381</v>
       </c>
       <c r="D1009" s="147" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1010" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44731,7 +44734,7 @@
         <v>1382</v>
       </c>
       <c r="D1010" s="28" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1011" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44745,7 +44748,7 @@
         <v>550</v>
       </c>
       <c r="D1011" s="28" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1012" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44765,7 +44768,7 @@
         <v>1384</v>
       </c>
       <c r="D1013" s="28" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1014" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44779,7 +44782,7 @@
         <v>1385</v>
       </c>
       <c r="D1014" s="28" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1015" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44793,7 +44796,7 @@
         <v>1386</v>
       </c>
       <c r="D1015" s="28" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1016" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44813,7 +44816,7 @@
         <v>540</v>
       </c>
       <c r="D1017" s="28" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1018" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44827,7 +44830,7 @@
         <v>1388</v>
       </c>
       <c r="D1018" s="28" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1019" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44841,7 +44844,7 @@
         <v>1389</v>
       </c>
       <c r="D1019" s="28" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1020" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44855,7 +44858,7 @@
         <v>542</v>
       </c>
       <c r="D1020" s="28" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1021" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44883,7 +44886,7 @@
         <v>1391</v>
       </c>
       <c r="D1022" s="28" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1023" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44903,7 +44906,7 @@
         <v>552</v>
       </c>
       <c r="D1024" s="28" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1025" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44917,7 +44920,7 @@
         <v>553</v>
       </c>
       <c r="D1025" s="28" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1026" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44931,7 +44934,7 @@
         <v>554</v>
       </c>
       <c r="D1026" s="28" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1027" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44945,7 +44948,7 @@
         <v>555</v>
       </c>
       <c r="D1027" s="28" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1028" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44959,7 +44962,7 @@
         <v>1393</v>
       </c>
       <c r="D1028" s="28" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1029" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44973,7 +44976,7 @@
         <v>557</v>
       </c>
       <c r="D1029" s="28" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1030" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -44993,7 +44996,7 @@
         <v>1395</v>
       </c>
       <c r="D1031" s="28" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1032" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45007,7 +45010,7 @@
         <v>1396</v>
       </c>
       <c r="D1032" s="28" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1033" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45021,7 +45024,7 @@
         <v>553</v>
       </c>
       <c r="D1033" s="28" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1034" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45041,7 +45044,7 @@
         <v>1398</v>
       </c>
       <c r="D1035" s="28" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1036" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45055,7 +45058,7 @@
         <v>1399</v>
       </c>
       <c r="D1036" s="28" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1037" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45069,7 +45072,7 @@
         <v>1400</v>
       </c>
       <c r="D1037" s="28" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1038" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45083,7 +45086,7 @@
         <v>1401</v>
       </c>
       <c r="D1038" s="28" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1039" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45097,7 +45100,7 @@
         <v>1402</v>
       </c>
       <c r="D1039" s="28" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1040" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45117,7 +45120,7 @@
         <v>1404</v>
       </c>
       <c r="D1041" s="28" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1042" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45131,7 +45134,7 @@
         <v>1405</v>
       </c>
       <c r="D1042" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1043" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45151,7 +45154,7 @@
         <v>553</v>
       </c>
       <c r="D1044" s="10" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1045" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -45165,7 +45168,7 @@
         <v>1407</v>
       </c>
       <c r="D1045" s="10" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1046" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -45179,7 +45182,7 @@
         <v>1408</v>
       </c>
       <c r="D1046" s="10" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1047" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -45193,7 +45196,7 @@
         <v>554</v>
       </c>
       <c r="D1047" s="10" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1048" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -45207,7 +45210,7 @@
         <v>1409</v>
       </c>
       <c r="D1048" s="10" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1049" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -45221,7 +45224,7 @@
         <v>54</v>
       </c>
       <c r="D1049" s="10" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1050" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45241,7 +45244,7 @@
         <v>434</v>
       </c>
       <c r="D1051" s="28" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1052" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45255,7 +45258,7 @@
         <v>278</v>
       </c>
       <c r="D1052" s="28" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1053" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45269,7 +45272,7 @@
         <v>1220</v>
       </c>
       <c r="D1053" s="28" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1054" spans="1:4" s="151" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -45283,7 +45286,7 @@
         <v>1411</v>
       </c>
       <c r="D1054" s="150" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1055" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -45311,7 +45314,7 @@
         <v>1414</v>
       </c>
       <c r="D1057" s="140" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1058" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45325,7 +45328,7 @@
         <v>516</v>
       </c>
       <c r="D1058" s="28" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1059" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45345,7 +45348,7 @@
         <v>1416</v>
       </c>
       <c r="D1060" s="28" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1061" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45359,7 +45362,7 @@
         <v>1417</v>
       </c>
       <c r="D1061" s="28" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1062" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45373,7 +45376,7 @@
         <v>1418</v>
       </c>
       <c r="D1062" s="28" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1063" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -45387,7 +45390,7 @@
         <v>1419</v>
       </c>
       <c r="D1063" s="28" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1064" spans="1:5" s="151" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -45401,7 +45404,7 @@
         <v>1420</v>
       </c>
       <c r="D1064" s="150" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1065" spans="1:5" s="63" customFormat="1" x14ac:dyDescent="0.2">
@@ -47043,8 +47046,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -47077,14 +47080,14 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
-        <v>1632</v>
+        <v>2053</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>1632</v>
+        <v>2052</v>
       </c>
       <c r="C2" s="113" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2503122339</v>
+        <v>2503122349</v>
       </c>
       <c r="D2" s="114" t="s">
         <v>95</v>
@@ -47137,12 +47140,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002186E02562D0D8459668932245E2E430" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ff3cdf91ae28054276dade2e7785435">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6ed1506-ed24-4db5-8b65-c3ff33a2ca13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6fe02a66e6f07cde437f198bed46d81" ns2:_="">
     <xsd:import namespace="d6ed1506-ed24-4db5-8b65-c3ff33a2ca13"/>
@@ -47314,6 +47311,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D014051-71F5-49BF-93B2-A7B4C4DFC4F3}">
   <ds:schemaRefs>
@@ -47323,22 +47326,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2F414F6-92A4-49AD-B6A9-587470476FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d6ed1506-ed24-4db5-8b65-c3ff33a2ca13"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A98E0F0-3B0A-4133-978D-C3D757DBC684}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47354,4 +47341,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2F414F6-92A4-49AD-B6A9-587470476FC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d6ed1506-ed24-4db5-8b65-c3ff33a2ca13"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>